--- a/Python3/src/13 Financial Python/Spreadsheets/data/barCharts.xlsx
+++ b/Python3/src/13 Financial Python/Spreadsheets/data/barCharts.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,20 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Batch 1</t>
-  </si>
-  <si>
-    <t>Batch 2</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -78,6 +65,9 @@
         <rich>
           <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
             <a:r>
               <a:t>Bar Chart</a:t>
             </a:r>
@@ -94,7 +84,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>Sheet!B1</f>
+              <f>'Sheet'!B1</f>
             </strRef>
           </tx>
           <spPr>
@@ -104,12 +94,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$7</f>
+              <f>'Sheet'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$B$2:$B$7</f>
+              <f>'Sheet'!$B$2:$B$7</f>
             </numRef>
           </val>
         </ser>
@@ -118,7 +108,7 @@
           <order val="1"/>
           <tx>
             <strRef>
-              <f>Sheet!C1</f>
+              <f>'Sheet'!C1</f>
             </strRef>
           </tx>
           <spPr>
@@ -128,12 +118,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$7</f>
+              <f>'Sheet'!$A$2:$A$7</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$C$2:$C$7</f>
+              <f>'Sheet'!$C$2:$C$7</f>
             </numRef>
           </val>
         </ser>
@@ -141,6 +131,32 @@
         <axId val="10"/>
         <axId val="100"/>
       </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Sample length (mm)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
@@ -153,6 +169,9 @@
             <rich>
               <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
               <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
                 <a:r>
                   <a:t>Test number</a:t>
                 </a:r>
@@ -160,33 +179,15 @@
             </rich>
           </tx>
         </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:r>
-                  <a:t>Sample length (mm)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
     </plotArea>
     <legend>
       <legendPos val="r"/>
     </legend>
+    <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
 </chartSpace>
@@ -516,14 +517,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Batch 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Batch 2</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -593,6 +600,7 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>